--- a/Translator/excel/Flattened/Flattened_English.xlsx
+++ b/Translator/excel/Flattened/Flattened_English.xlsx
@@ -10486,7 +10486,7 @@
     <t>&lt;tooltips&gt;&lt;browser_options&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;browser_options param="'le'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;browser_options param=''le''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;browser_shortcut&gt;</t>
@@ -10495,10 +10495,10 @@
     <t>&lt;tooltips&gt;&lt;browser_zoom&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;clone_deck param="left"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;clone_deck param="right"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;clone_deck param='left'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;clone_deck param='right'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;clone_from_deck&gt;</t>
@@ -10531,19 +10531,19 @@
     <t>&lt;tooltips&gt;&lt;deck_options&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;display_time param="'elapsed,remain'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;display_time param="'remain,total'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;display_time param=''elapsed,remain''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;display_time param=''remain,total''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;effect_active&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;effect_clone param="left"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;effect_clone param="right"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;effect_clone param='left'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;effect_clone param='right'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;effect_colorfx&gt;</t>
@@ -10555,10 +10555,10 @@
     <t>&lt;tooltips&gt;&lt;effect_select&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;effect_select param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;effect_select param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;effect_select param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;effect_select param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;effect_show_gui&gt;</t>
@@ -10585,13 +10585,13 @@
     <t>&lt;tooltips&gt;&lt;filter_selectcolorfx&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;font_size param="-7%"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;font_size param="'big'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;font_size param="+7%"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;font_size param='-7%'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;font_size param=''big''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;font_size param='+7%'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;get_battery&gt;</t>
@@ -10627,10 +10627,10 @@
     <t>&lt;tooltips&gt;&lt;get_level_right_peak&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;get_level param="'mic'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;get_level param="'sampler'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;get_level param=''mic''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;get_level param=''sampler''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;get_limiter&gt;</t>
@@ -10657,7 +10657,7 @@
     <t>&lt;tooltips&gt;&lt;get_vu_meter_right_peak&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;get_vu_meter param="'mic'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;get_vu_meter param=''mic''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;goto_bar&gt;</t>
@@ -10681,10 +10681,10 @@
     <t>&lt;tooltips&gt;&lt;key_match_button&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;key_move param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;key_move param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;key_move param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;key_move param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;linein&gt;</t>
@@ -10696,19 +10696,19 @@
     <t>&lt;tooltips&gt;&lt;loop&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'-1'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'+1'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'in'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'move'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;loop_adjust param="'out'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''-1''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''+1''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''in''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''move''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;loop_adjust param=''out''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;loop_back&gt;</t>
@@ -10783,16 +10783,16 @@
     <t>&lt;tooltips&gt;&lt;pad_page_select&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;pad_param param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pad_param param="+1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pad_param2 param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pad_param2 param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;pad_param param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pad_param param='+1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pad_param2 param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pad_param2 param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;pause&gt;</t>
@@ -10807,7 +10807,7 @@
     <t>&lt;tooltips&gt;&lt;phrase_sync&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;phrase_sync param="'auto'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;phrase_sync param=''auto''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;pitch&gt;</t>
@@ -10816,10 +10816,10 @@
     <t>&lt;tooltips&gt;&lt;pitch_bend&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;pitch_bend param="-2% 500ms"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;pitch_bend param="+2% 500ms"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;pitch_bend param='-2% 500ms'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;pitch_bend param='+2% 500ms'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;pitch_reset&gt;</t>
@@ -10864,10 +10864,10 @@
     <t>&lt;tooltips&gt;&lt;sampler_abort_rec&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;sampler_bank param="-1"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sampler_bank param="+1"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;sampler_bank param='-1'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sampler_bank param='+1'&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;sampler_pad&gt;</t>
@@ -10876,10 +10876,10 @@
     <t>&lt;tooltips&gt;&lt;sampler_rec&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;sampler_rec param="'master'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sampler_rec param="'mic'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;sampler_rec param=''master''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sampler_rec param=''mic''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;sandbox&gt;</t>
@@ -10894,7 +10894,7 @@
     <t>&lt;tooltips&gt;&lt;select_master_output&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;setting param="'keyDisplay'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;setting param=''keyDisplay''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;settings&gt;</t>
@@ -10906,25 +10906,25 @@
     <t>&lt;tooltips&gt;&lt;sideview_options&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'automix'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'automix' 'blink'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'clone'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'karaoke'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'karaoke' 'blink'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'sampler'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;sideview param="'sidelist'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;sideview param=''automix''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''automix' 'blink''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''clone''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''karaoke''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''karaoke' 'blink''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''sampler''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;sideview param=''sidelist''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;skin_panel&gt;</t>
@@ -10978,13 +10978,13 @@
     <t>&lt;tooltips&gt;&lt;video_transition_select&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;view_options param="'showkaraoke'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;view_options param="'showmusic'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;view_options param="'showvideo'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;view_options param=''showkaraoke''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;view_options param=''showmusic''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;view_options param=''showvideo''&gt;</t>
   </si>
   <si>
     <t>return true if the button calling this action is on the specified deck: 'action_deck 1 ? actionA : actionB'</t>
